--- a/data/1/СИиЕ/!печать/З/номера зачеток СПФ СИиЕ 1 курс заочное.xlsx
+++ b/data/1/СИиЕ/!печать/З/номера зачеток СПФ СИиЕ 1 курс заочное.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\СИиЕ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\СИиЕ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66FCBBD-2324-404D-98AF-5EBAC07073EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59FF32-C53C-49E0-BECC-1EEF362E0D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="111" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>0808105</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -1087,28 +1087,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1126,602 +1126,602 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" s="10"/>
     </row>
@@ -1737,29 +1737,29 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1767,7 +1767,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1775,442 +1775,442 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -2224,30 +2224,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2255,7 +2255,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2263,322 +2263,322 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" s="10"/>
     </row>
